--- a/Opdrachten-schema.xlsx
+++ b/Opdrachten-schema.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Opdrachten om te maken</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Beschrijving</t>
   </si>
   <si>
+    <t>Persoon</t>
+  </si>
+  <si>
     <t>Intro opdracht</t>
   </si>
   <si>
@@ -99,6 +102,12 @@
   </si>
   <si>
     <t>Component maken met simpele String parameter</t>
+  </si>
+  <si>
+    <t>Jeroen</t>
+  </si>
+  <si>
+    <t>Laura</t>
   </si>
 </sst>
 </file>
@@ -419,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,12 +443,12 @@
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -447,86 +456,113 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Opdrachten-schema.xlsx
+++ b/Opdrachten-schema.xlsx
@@ -114,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,13 +122,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,16 +164,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,7 +467,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,13 +502,13 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -480,10 +516,11 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -530,13 +567,13 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -558,10 +595,11 @@
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Opdrachten-schema.xlsx
+++ b/Opdrachten-schema.xlsx
@@ -114,17 +114,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,17 +130,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -164,12 +152,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -178,14 +165,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,7 +449,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,13 +484,13 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -516,11 +498,11 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -595,11 +577,11 @@
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
